--- a/data/trans_dic/P15A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15A-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P15A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15A-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,54%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>4,83; 9,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>2,88; 6,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>2,55; 6,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0,5; 6,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>1,15; 3,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>0,9; 3,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>0,49; 2,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>0,76; 6,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>3,34; 6,03</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,04</t>
+          <t>2,35; 4,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>1,66; 4,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>1,15; 5,37</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,95%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>3,36; 6,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,36</t>
+          <t>3,42; 7,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>2,47; 5,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>1,33; 5,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>1,75; 4,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>1,0; 3,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>0,79; 3,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>0,42; 2,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,02</t>
+          <t>2,84; 5,07</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>2,53; 4,85</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>1,92; 3,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>1,09; 3,34</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,81%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>1,24; 3,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>1,27; 3,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>1,87; 4,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>0,99; 3,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>1,01; 3,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>0,83; 2,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>0,89; 3,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>0,94; 2,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>1,38; 2,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,36</t>
+          <t>1,24; 2,92</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>1,57; 3,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,46</t>
+          <t>1,16; 2,78</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,44%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>2,28; 5,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>0,65; 2,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>0,99; 3,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>1,94; 5,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>0,97; 3,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>1,86; 4,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>0,76; 2,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>1,06; 2,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>1,88; 4,1</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>1,5; 3,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>1,05; 2,61</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>1,75; 3,39</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,77%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>1,22; 4,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>0,25; 2,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>0,22; 2,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>0,55; 2,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>1,2; 4,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>1,64; 5,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>1,46; 4,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>1,46; 3,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>1,53; 3,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>1,23; 3,18</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>1,17; 2,93</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>1,21; 2,51</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,63%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>1,09; 3,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>1,79; 4,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>1,31; 3,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>1,51; 3,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>3,27; 6,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>2,93; 6,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>3,42; 6,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>3,2; 5,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>2,59; 4,93</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,7</t>
+          <t>2,71; 4,81</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>2,69; 4,77</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>2,81; 4,45</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,46%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>3,14; 4,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>2,3; 3,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,99</t>
+          <t>2,09; 3,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>1,76; 2,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,13</t>
+          <t>2,25; 3,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>2,26; 3,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>1,97; 3,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>2,17; 3,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>2,86; 3,72</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>2,41; 3,25</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>2,2; 2,96</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>2,1; 2,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P15A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15A-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,33%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,5; 6,33</t>
+          <t>0,49; 5,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 6,91</t>
+          <t>0,78; 6,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 5,37</t>
+          <t>1,01; 4,88</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,8%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 5,53</t>
+          <t>1,21; 5,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,56</t>
+          <t>0,34; 2,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,34</t>
+          <t>0,98; 3,23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,49</t>
+          <t>0,99; 3,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,68</t>
+          <t>0,95; 2,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,78</t>
+          <t>1,17; 2,77</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,19 +1091,19 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>2,44%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>3,18%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,87%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,18%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
           <t>1,56%</t>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,08%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 5,11</t>
+          <t>0,98; 4,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,68</t>
+          <t>1,01; 2,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,39</t>
+          <t>1,28; 3,01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,76%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,27</t>
+          <t>0,55; 2,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,33</t>
+          <t>1,45; 3,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,51</t>
+          <t>1,2; 2,5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>2,37%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,66</t>
+          <t>0,61; 3,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,65</t>
+          <t>1,27; 4,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,56</t>
+          <t>0,53; 3,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,26</t>
+          <t>0,91; 3,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,27; 6,62</t>
+          <t>1,3; 4,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,93; 6,08</t>
+          <t>2,14; 5,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,42; 6,54</t>
+          <t>2,53; 6,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,2; 5,81</t>
+          <t>0,94; 4,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,59; 4,93</t>
+          <t>1,18; 3,43</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,71; 4,81</t>
+          <t>1,96; 4,66</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,69; 4,77</t>
+          <t>1,78; 4,41</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,81; 4,45</t>
+          <t>1,08; 3,33</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>5,01%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>1,2; 6,11</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1,63; 6,37</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1,58; 5,46</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1,7; 5,05</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4,36; 10,34</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2,95; 7,57</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3,18; 8,03</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4,82; 8,17</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3,6; 7,67</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2,81; 6,26</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3,0; 6,64</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4,02; 6,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3,76%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2,87%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,63%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2,76%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2,47%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3,26%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2,82%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2,31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>3,14; 4,49</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>2,3; 3,5</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>2,09; 3,21</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>1,76; 2,92</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1,55; 2,78</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>2,25; 3,37</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>2,26; 3,38</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>1,97; 3,11</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>2,17; 3,22</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2,03; 3,07</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>2,86; 3,72</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>2,41; 3,25</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>2,2; 2,96</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>2,1; 2,85</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1,89; 2,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P15A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15A-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,83; 9,48</t>
+          <t>4,86; 9,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,88; 6,76</t>
+          <t>3,0; 6,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,55; 6,41</t>
+          <t>2,4; 6,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 5,67</t>
+          <t>0,47; 5,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,94</t>
+          <t>1,22; 3,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 3,65</t>
+          <t>0,96; 3,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,84</t>
+          <t>0,5; 2,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 6,89</t>
+          <t>0,81; 6,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,34; 6,03</t>
+          <t>3,45; 6,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,91</t>
+          <t>2,28; 4,79</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 4,13</t>
+          <t>1,75; 4,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,88</t>
+          <t>0,89; 4,91</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,48</t>
+          <t>3,39; 6,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,42; 7,07</t>
+          <t>3,4; 6,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,48</t>
+          <t>2,44; 5,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 5,5</t>
+          <t>1,32; 5,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,64</t>
+          <t>1,72; 4,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,71</t>
+          <t>1,01; 3,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,1</t>
+          <t>0,78; 2,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,32</t>
+          <t>0,34; 2,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 5,07</t>
+          <t>2,94; 5,07</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 4,85</t>
+          <t>2,57; 4,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,74</t>
+          <t>1,87; 3,77</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,23</t>
+          <t>0,94; 3,3</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,75</t>
+          <t>1,35; 3,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,84</t>
+          <t>1,32; 3,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,68</t>
+          <t>1,8; 4,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,46</t>
+          <t>0,93; 3,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,21</t>
+          <t>1,11; 3,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,84</t>
+          <t>0,92; 2,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,1</t>
+          <t>0,82; 3,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,68</t>
+          <t>0,96; 2,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,98</t>
+          <t>1,39; 3,04</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,92</t>
+          <t>1,28; 2,83</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 3,3</t>
+          <t>1,64; 3,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,77</t>
+          <t>1,14; 2,74</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,8</t>
+          <t>2,36; 5,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,6</t>
+          <t>0,64; 2,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,47</t>
+          <t>0,95; 3,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,1</t>
+          <t>0,92; 3,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,66</t>
+          <t>0,84; 3,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,97</t>
+          <t>1,92; 5,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,93</t>
+          <t>0,74; 2,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,57</t>
+          <t>0,99; 2,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,1</t>
+          <t>1,95; 4,05</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,21</t>
+          <t>1,52; 3,22</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,61</t>
+          <t>1,09; 2,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,01</t>
+          <t>1,15; 2,93</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,8</t>
+          <t>1,2; 4,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,41</t>
+          <t>0,26; 2,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,11</t>
+          <t>0,22; 1,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,25</t>
+          <t>0,55; 2,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 4,4</t>
+          <t>1,23; 4,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,09</t>
+          <t>1,69; 5,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,89</t>
+          <t>1,53; 4,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,31</t>
+          <t>1,53; 3,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,8</t>
+          <t>1,5; 3,69</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,18</t>
+          <t>1,22; 3,15</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,93</t>
+          <t>1,14; 2,94</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,5</t>
+          <t>1,19; 2,46</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,53</t>
+          <t>0,58; 3,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,85</t>
+          <t>1,27; 4,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,1</t>
+          <t>0,55; 3,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,14</t>
+          <t>0,92; 3,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,81</t>
+          <t>1,53; 4,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,84</t>
+          <t>1,94; 5,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,53; 6,74</t>
+          <t>2,54; 7,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,53</t>
+          <t>1,12; 4,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,43</t>
+          <t>1,17; 3,53</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,66</t>
+          <t>2,05; 4,67</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,41</t>
+          <t>1,83; 4,6</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,33</t>
+          <t>1,2; 3,37</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,2; 6,11</t>
+          <t>1,24; 6,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,63; 6,37</t>
+          <t>1,59; 6,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,58; 5,46</t>
+          <t>1,56; 5,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,05</t>
+          <t>1,82; 5,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,36; 10,34</t>
+          <t>4,35; 10,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,95; 7,57</t>
+          <t>2,91; 7,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,18; 8,03</t>
+          <t>3,13; 8,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,82; 8,17</t>
+          <t>4,81; 8,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,6; 7,67</t>
+          <t>3,55; 7,28</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,81; 6,26</t>
+          <t>2,91; 6,19</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,0; 6,64</t>
+          <t>2,99; 6,51</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,02; 6,26</t>
+          <t>4,01; 6,3</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,14; 4,49</t>
+          <t>3,12; 4,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,3; 3,5</t>
+          <t>2,34; 3,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,21</t>
+          <t>2,14; 3,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,55; 2,78</t>
+          <t>1,58; 2,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,25; 3,37</t>
+          <t>2,23; 3,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,38</t>
+          <t>2,25; 3,38</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,97; 3,11</t>
+          <t>2,0; 3,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,03; 3,07</t>
+          <t>1,99; 3,13</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,86; 3,72</t>
+          <t>2,85; 3,77</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,41; 3,25</t>
+          <t>2,39; 3,24</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2,2; 2,96</t>
+          <t>2,17; 2,97</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,89; 2,72</t>
+          <t>1,89; 2,71</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>33715</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>20639</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17359</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7814</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10587</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8980</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4977</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8826</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>44302</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>29619</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>22336</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>16640</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>23991; 47058</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13612; 31027</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10055; 26440</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1867; 21929</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5707; 18309</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4117; 15740</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1959; 11778</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2547; 21286</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>33219; 59375</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20196; 42320</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>14291; 32901</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6377; 34990</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>34936</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>33283</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>22131</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>11758</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>18553</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>12336</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9232</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>53489</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>45619</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>31363</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>16808</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>24905; 48566</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>23384; 47479</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>14395; 32963</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5587; 23704</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>10731; 29295</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6136; 22952</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4412; 16606</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1758; 11736</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>39993; 68961</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>33312; 61279</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>21638; 43545</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>8762; 30858</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14931</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15467</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>20261</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10172</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13416</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>11530</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11215</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9319</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>28347</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>26997</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>31476</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>19491</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8617; 23200</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9025; 26305</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12030; 31016</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4992; 18676</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7686; 22457</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6537; 20085</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5451; 20894</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5210; 15465</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18477; 40424</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17783; 39440</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>21767; 44987</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>12304; 29576</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>19538</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8141</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>12461</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>21618</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9665</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>19599</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>10133</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>11668</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>29203</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>27739</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>22594</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>33286</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>12270; 29441</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3962; 15537</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>6167; 21178</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>8150; 34863</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4315; 17520</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>11836; 30946</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4813; 18207</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>7087; 18429</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>20163; 41959</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>18696; 39586</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>14152; 34654</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>18462; 46968</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9371</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4371</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4106</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6603</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9871</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>13941</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>14416</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>12916</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>19242</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>18313</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>18522</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>19518</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4634; 18050</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1112; 10965</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1030; 9227</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3077; 11595</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4963; 17730</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7547; 23244</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>7605; 24567</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8382; 19573</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>11848; 29174</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>10708; 27611</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>11080; 28639</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>13159; 27253</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4653</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>7981</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4709</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6376</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>9114</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>12845</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>15994</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>16762</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>13767</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>20826</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>20703</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>23138</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1688; 9874</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>3921; 14800</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1844; 10067</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3372; 12608</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>5233; 17108</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>6882; 21036</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>9606; 26428</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>6784; 28242</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>7445; 22460</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>13585; 31028</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>12996; 32744</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>11721; 32910</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>5933</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>8433</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>8083</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>8589</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>22600</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>19099</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>21545</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>26946</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>28533</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>27532</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>29628</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>35535</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2599; 12755</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3965; 15801</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>4002; 14558</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>5148; 14150</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>14536; 33998</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>11305; 29107</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>12508; 33208</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>20476; 35223</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>19320; 39577</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>18577; 39570</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>19658; 42775</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>28406; 44670</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>123077</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>98315</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>89111</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>72930</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>93806</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>98331</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>87510</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>91486</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>216883</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>196646</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>176621</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>164416</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>102111; 144855</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>80016; 122151</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>72684; 108185</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>54522; 97424</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>75288; 115059</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>79889; 120306</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>71030; 110136</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>73012; 114774</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>189848; 251213</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>167014; 226559</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>150790; 205997</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>134783; 193208</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>